--- a/Professor_List.xlsx
+++ b/Professor_List.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c82f40c7def754bb/Desktop/DISCO Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c82f40c7def754bb/Documents/GitHub/Professor-Course-Optimization-Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{4FF1AE4C-4C57-4A4F-A40B-C3E67BF6F658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{534DDDEC-7CB6-4178-9231-3F3FEB4FC58B}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{4FF1AE4C-4C57-4A4F-A40B-C3E67BF6F658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89BA18A7-4102-48B0-B254-D13472A94356}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D49A1CB6-A3E4-4AE2-A760-F5CF60FBC19B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>CS_P30</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -261,9 +264,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,260 +580,353 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE0C9B5-5DA2-4DE6-9E46-783FA6AFD3D0}">
-  <dimension ref="D4:E34"/>
+  <dimension ref="D4:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F31">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>60</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F33">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>61</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" t="s">
         <v>31</v>
+      </c>
+      <c r="F34">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
